--- a/spliced/falling/2023-03-25_18-02-59/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-59/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.078343465924263</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.3949243724346161</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0597120784223079</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.08445212244987479</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-02-59/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-59/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1214094683527946</v>
+        <v>0.0328340083360672</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0080939643085002</v>
+        <v>0.0253509078174829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0326812900602817</v>
+        <v>0.0371100641787052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.061391957104206</v>
+        <v>0.0198531206697225</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0507018156349659</v>
+        <v>0.0163406450301408</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0813977941870689</v>
+        <v>-0.009468411095440299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0126754539087414</v>
+        <v>-0.0001527163112768</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.266184538602829</v>
+        <v>0.0464257597923278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0452040284872055</v>
+        <v>0.0154243474826216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0755945742130279</v>
+        <v>0.0108428578823804</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1324050426483154</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1108720451593399</v>
+        <v>0.1504255682229995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2214386463165283</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4340197443962097</v>
+        <v>-0.0316122770309448</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0148134818300604</v>
+        <v>0.0610865242779254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2553416788578033</v>
+        <v>-0.009010262787342</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5070181488990784</v>
+        <v>-0.0128281703218817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0436768643558025</v>
+        <v>0.0167987942695617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8651378750801086</v>
+        <v>-0.0468839071691036</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230448916554451</v>
+        <v>0.052381694316864</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6892086863517761</v>
+        <v>0.0694859251379966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.613447785377502</v>
+        <v>0.0027488935738801</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0974330082535743</v>
+        <v>0.09178250283002851</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.265546560287476</v>
+        <v>0.0717766657471656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1902845203876495</v>
+        <v>0.0128281703218817</v>
       </c>
       <c r="B10" t="n">
-        <v>1.200044751167297</v>
+        <v>0.0387899428606033</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.24567985534668</v>
+        <v>0.0054977871477603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5577199459075928</v>
+        <v>0.1214094683527946</v>
       </c>
       <c r="B11" t="n">
-        <v>2.010357618331909</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8011497855186462</v>
+        <v>0.0326812900602817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.031724214553833</v>
+        <v>-0.061391957104206</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6270532011985779</v>
+        <v>-0.0507018156349659</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.525289535522461</v>
+        <v>-0.0813977941870689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.38100004196167</v>
+        <v>0.0126754539087414</v>
       </c>
       <c r="B13" t="n">
-        <v>0.087353728711605</v>
+        <v>-0.266184538602829</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.472948789596558</v>
+        <v>0.0452040284872055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8362745046615601</v>
+        <v>0.0755945742130279</v>
       </c>
       <c r="B14" t="n">
-        <v>2.635119915008545</v>
+        <v>-0.1324050426483154</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4735732674598694</v>
+        <v>0.1108720451593399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3104722499847412</v>
+        <v>0.2214386463165283</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0462730415165424</v>
+        <v>-0.4340197443962097</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.327729195356369</v>
+        <v>-0.0148134818300604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0215329993516206</v>
+        <v>0.2553416788578033</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9650143980979921</v>
+        <v>-0.5070181488990784</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0117591563612222</v>
+        <v>0.0436768643558025</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5355761051177979</v>
+        <v>0.8651378750801086</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6331618428230286</v>
+        <v>0.230448916554451</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1020144969224929</v>
+        <v>-0.6892086863517761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0649044290184974</v>
+        <v>1.613447785377502</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545655369758606</v>
+        <v>-0.0974330082535743</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1579086631536483</v>
+        <v>-2.265546560287476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1128573566675186</v>
+        <v>0.1902845203876495</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2232712507247924</v>
+        <v>1.200044751167297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1513418704271316</v>
+        <v>-3.24567985534668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1999056488275528</v>
+        <v>-0.5577199459075928</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3659082949161529</v>
+        <v>2.010357618331909</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0462730415165424</v>
+        <v>0.8011497855186462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-3.031724214553833</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6270532011985779</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.525289535522461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.38100004196167</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.087353728711605</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.472948789596558</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.8362745046615601</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.635119915008545</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4735732674598694</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.3104722499847412</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0462730415165424</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.327729195356369</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0215329993516206</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9650143980979921</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0117591563612222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.5355761051177979</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6331618428230286</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1020144969224929</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0649044290184974</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.545655369758606</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1579086631536483</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1128573566675186</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2232712507247924</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1513418704271316</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1999056488275528</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.3659082949161529</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0462730415165424</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.2883284091949463</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>-0.233655959367752</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-0.078343465924263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3949243724346161</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0597120784223079</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08445212244987479</v>
       </c>
     </row>
   </sheetData>
